--- a/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108.53679067336684</v>
+        <v>108.53679067243553</v>
       </c>
       <c r="C2">
-        <v>130.50796909326525</v>
+        <v>130.50796909332814</v>
       </c>
       <c r="D2">
-        <v>86.217924888787309</v>
+        <v>86.217924888461837</v>
       </c>
       <c r="E2">
-        <v>167.78796178820667</v>
+        <v>167.78796178935184</v>
       </c>
       <c r="F2">
-        <v>106.49755486994653</v>
+        <v>106.49755487040802</v>
       </c>
       <c r="G2">
-        <v>146.38898805931126</v>
+        <v>146.38898805918086</v>
       </c>
       <c r="H2">
-        <v>98.227632009750494</v>
+        <v>98.227631978827816</v>
       </c>
       <c r="I2">
-        <v>131.72709602353081</v>
+        <v>131.72709602366078</v>
       </c>
       <c r="J2">
-        <v>87.597061592750549</v>
+        <v>87.597061593257081</v>
       </c>
       <c r="K2">
-        <v>96.564859469843455</v>
+        <v>96.564859470653744</v>
       </c>
       <c r="L2">
-        <v>78.482783385562584</v>
+        <v>78.482783383386248</v>
       </c>
       <c r="M2">
-        <v>130.83267248217768</v>
+        <v>130.83267248187872</v>
       </c>
       <c r="N2">
-        <v>170.16317131354603</v>
+        <v>170.16317131227225</v>
       </c>
       <c r="O2">
-        <v>140.01849556810507</v>
+        <v>140.01849556838636</v>
       </c>
       <c r="P2">
-        <v>173.28392120461555</v>
+        <v>173.28392120507476</v>
       </c>
       <c r="Q2">
-        <v>159.77013132957009</v>
+        <v>159.77013132981543</v>
       </c>
       <c r="R2">
-        <v>183.50224219178463</v>
+        <v>183.50224219209477</v>
       </c>
       <c r="S2">
-        <v>133.9000559850341</v>
+        <v>133.90005598578477</v>
       </c>
       <c r="T2">
-        <v>138.15918885559188</v>
+        <v>138.15918885639201</v>
       </c>
       <c r="U2">
-        <v>112.82915421029499</v>
+        <v>112.82915421092301</v>
       </c>
       <c r="V2">
-        <v>139.05239992990673</v>
+        <v>139.05239993030253</v>
       </c>
       <c r="W2">
-        <v>195.4979805950064</v>
+        <v>195.49798059546595</v>
       </c>
       <c r="X2">
-        <v>133.25311073384313</v>
+        <v>133.25311073337954</v>
       </c>
       <c r="Y2">
-        <v>142.09159948456707</v>
+        <v>142.09159948830109</v>
       </c>
       <c r="Z2">
-        <v>91.203762420435041</v>
+        <v>91.20376242033656</v>
       </c>
       <c r="AA2">
-        <v>122.50714773551856</v>
+        <v>122.5071477372461</v>
       </c>
       <c r="AB2">
-        <v>123.36092327171983</v>
+        <v>123.36092327098442</v>
       </c>
       <c r="AC2">
-        <v>94.349635695343295</v>
+        <v>94.34963569557641</v>
       </c>
       <c r="AD2">
-        <v>144.36908183758302</v>
+        <v>144.36908183762847</v>
       </c>
       <c r="AE2">
-        <v>109.3213306344559</v>
+        <v>109.32133063467514</v>
       </c>
       <c r="AF2">
-        <v>135.93891510245103</v>
+        <v>135.93891510238757</v>
       </c>
       <c r="AG2">
-        <v>98.349672161280083</v>
+        <v>98.34967216140771</v>
       </c>
       <c r="AH2">
-        <v>126.54799353622596</v>
+        <v>126.54799353488769</v>
       </c>
       <c r="AI2">
-        <v>108.76753667617977</v>
+        <v>108.76753667650155</v>
       </c>
       <c r="AJ2">
-        <v>100.97312112046593</v>
+        <v>100.97312112049114</v>
       </c>
       <c r="AK2">
-        <v>72.38566303169236</v>
+        <v>72.385663031421487</v>
       </c>
       <c r="AL2">
-        <v>121.6814749006563</v>
+        <v>121.68147490120829</v>
       </c>
       <c r="AM2">
-        <v>171.14256748863212</v>
+        <v>171.14256748876934</v>
       </c>
       <c r="AN2">
-        <v>136.23033650477373</v>
+        <v>136.23033650484743</v>
       </c>
       <c r="AO2">
-        <v>169.44221102800589</v>
+        <v>169.44221102936439</v>
       </c>
       <c r="AP2">
-        <v>172.32693910541479</v>
+        <v>172.32693910660907</v>
       </c>
       <c r="AQ2">
-        <v>180.55552772406651</v>
+        <v>180.55552772430062</v>
       </c>
       <c r="AR2">
-        <v>132.12222995219616</v>
+        <v>132.12222995260834</v>
       </c>
       <c r="AS2">
-        <v>141.44613494291028</v>
+        <v>141.44613494319265</v>
       </c>
       <c r="AT2">
-        <v>113.79507890337534</v>
+        <v>113.79507890385413</v>
       </c>
       <c r="AU2">
-        <v>146.0366620778895</v>
+        <v>146.03666207768961</v>
       </c>
       <c r="AV2">
-        <v>180.81102908655447</v>
+        <v>180.81102908570759</v>
       </c>
       <c r="AW2">
-        <v>128.42670101836651</v>
+        <v>128.42670101633828</v>
       </c>
       <c r="AX2">
-        <v>152.44412049764736</v>
+        <v>152.44412049780721</v>
       </c>
       <c r="AY2">
-        <v>120.96573034895519</v>
+        <v>120.96573034907277</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>124.69806040947336</v>
+        <v>124.69806041155483</v>
       </c>
       <c r="C3">
-        <v>106.06981286636974</v>
+        <v>106.06981286682046</v>
       </c>
       <c r="D3">
-        <v>87.523844328079178</v>
+        <v>87.523844325566358</v>
       </c>
       <c r="E3">
-        <v>158.08801950496579</v>
+        <v>158.08801950570924</v>
       </c>
       <c r="F3">
-        <v>129.52016696385911</v>
+        <v>129.52016696462667</v>
       </c>
       <c r="G3">
-        <v>134.98899100731663</v>
+        <v>134.98899098088384</v>
       </c>
       <c r="H3">
-        <v>97.152068315205554</v>
+        <v>97.152068316348817</v>
       </c>
       <c r="I3">
-        <v>136.54122387371021</v>
+        <v>136.54122387308246</v>
       </c>
       <c r="J3">
-        <v>85.863777243890411</v>
+        <v>85.863777243963639</v>
       </c>
       <c r="K3">
-        <v>113.50801785764747</v>
+        <v>113.50801785816719</v>
       </c>
       <c r="L3">
-        <v>109.33478146764193</v>
+        <v>109.33478146491569</v>
       </c>
       <c r="M3">
-        <v>141.15425496677005</v>
+        <v>141.15393684531759</v>
       </c>
       <c r="N3">
-        <v>154.47666934425496</v>
+        <v>154.47666934452252</v>
       </c>
       <c r="O3">
-        <v>130.70809749422924</v>
+        <v>130.70809749441366</v>
       </c>
       <c r="P3">
-        <v>150.19523945461478</v>
+        <v>150.19523945396648</v>
       </c>
       <c r="Q3">
-        <v>149.86198920629164</v>
+        <v>149.86198920575478</v>
       </c>
       <c r="R3">
-        <v>182.90618850896621</v>
+        <v>182.90618850901117</v>
       </c>
       <c r="S3">
-        <v>132.69193178965696</v>
+        <v>132.69193178937329</v>
       </c>
       <c r="T3">
-        <v>144.26980523238512</v>
+        <v>144.26980523218228</v>
       </c>
       <c r="U3">
-        <v>95.308519957003341</v>
+        <v>95.308519956977662</v>
       </c>
       <c r="V3">
-        <v>165.5091472923925</v>
+        <v>165.50914729191317</v>
       </c>
       <c r="W3">
-        <v>129.27973470038975</v>
+        <v>129.27973469896463</v>
       </c>
       <c r="X3">
-        <v>142.31493903818435</v>
+        <v>142.31493903850003</v>
       </c>
       <c r="Y3">
-        <v>138.89162046299589</v>
+        <v>138.89162046296335</v>
       </c>
       <c r="Z3">
-        <v>127.34280027445678</v>
+        <v>127.3428002742039</v>
       </c>
       <c r="AA3">
-        <v>123.35508814263954</v>
+        <v>123.35508814218093</v>
       </c>
       <c r="AB3">
-        <v>106.1534581750671</v>
+        <v>106.15345817512129</v>
       </c>
       <c r="AC3">
-        <v>86.428506251581211</v>
+        <v>86.428506251828125</v>
       </c>
       <c r="AD3">
-        <v>152.20281893166873</v>
+        <v>152.20281893275822</v>
       </c>
       <c r="AE3">
-        <v>137.25774918158942</v>
+        <v>137.25774918226335</v>
       </c>
       <c r="AF3">
-        <v>131.11152765941284</v>
+        <v>131.11152765933326</v>
       </c>
       <c r="AG3">
-        <v>94.794806872348488</v>
+        <v>94.794806872237288</v>
       </c>
       <c r="AH3">
-        <v>142.51009604562972</v>
+        <v>142.5100960462506</v>
       </c>
       <c r="AI3">
-        <v>80.35322837360043</v>
+        <v>80.353228374244082</v>
       </c>
       <c r="AJ3">
-        <v>108.08541296145444</v>
+        <v>108.08541296283327</v>
       </c>
       <c r="AK3">
-        <v>83.563581237870807</v>
+        <v>83.563581232816119</v>
       </c>
       <c r="AL3">
-        <v>140.89963697916644</v>
+        <v>140.89963697910557</v>
       </c>
       <c r="AM3">
-        <v>160.11622192555291</v>
+        <v>160.1162219257493</v>
       </c>
       <c r="AN3">
-        <v>133.11241993572898</v>
+        <v>133.11241993554307</v>
       </c>
       <c r="AO3">
-        <v>196.52519448652691</v>
+        <v>196.52519448697234</v>
       </c>
       <c r="AP3">
-        <v>149.37290738023577</v>
+        <v>149.37290737998376</v>
       </c>
       <c r="AQ3">
-        <v>178.69734668509724</v>
+        <v>178.69734668584206</v>
       </c>
       <c r="AR3">
-        <v>125.6577981546743</v>
+        <v>125.65779815504314</v>
       </c>
       <c r="AS3">
-        <v>140.56905986318731</v>
+        <v>140.56905986225689</v>
       </c>
       <c r="AT3">
-        <v>99.320032659074087</v>
+        <v>99.320032659071941</v>
       </c>
       <c r="AU3">
-        <v>164.53860279094712</v>
+        <v>164.53860279069971</v>
       </c>
       <c r="AV3">
-        <v>125.85742733405375</v>
+        <v>125.85742733187719</v>
       </c>
       <c r="AW3">
-        <v>133.25225954330361</v>
+        <v>133.25225953030761</v>
       </c>
       <c r="AX3">
-        <v>113.4947130831755</v>
+        <v>113.49471308285365</v>
       </c>
       <c r="AY3">
-        <v>131.68352647884558</v>
+        <v>131.68352647886547</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>108.53679067243553</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>130.50796909332814</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>86.217924888461837</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>167.78796178935184</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>106.49755487040802</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>146.38898805918086</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>98.227631978827816</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>131.72709602366078</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>87.597061593257081</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>96.564859470653744</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>78.482783383386248</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>130.83267248187872</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>170.16317131227225</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>140.01849556838636</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>173.28392120507476</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>159.77013132981543</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>183.50224219209477</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.90005598578477</v>
@@ -588,55 +477,55 @@
         <v>91.20376242033656</v>
       </c>
       <c r="AA2">
-        <v>122.5071477372461</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>123.36092327098442</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>94.34963569557641</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>144.36908183762847</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>109.32133063467514</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>135.93891510238757</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>98.34967216140771</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>126.54799353488769</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>108.76753667650155</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>100.97312112049114</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>72.385663031421487</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>121.68147490120829</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>171.14256748876934</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>136.23033650484743</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>169.44221102936439</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>172.32693910660907</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>180.55552772430062</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>132.12222995260834</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>124.69806041155483</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>106.06981286682046</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>87.523844325566358</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>158.08801950570924</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>129.52016696462667</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.98899098088384</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>97.152068316348817</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>136.54122387308246</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.863777243963639</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.50801785816719</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>109.33478146491569</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>141.15393684531759</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>154.47666934452252</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>130.70809749441366</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>150.19523945396648</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>149.86198920575478</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>182.90618850901117</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>132.69193178937329</v>
@@ -743,55 +629,55 @@
         <v>127.3428002742039</v>
       </c>
       <c r="AA3">
-        <v>123.35508814218093</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>106.15345817512129</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>86.428506251828125</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>152.20281893275822</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>137.25774918226335</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>131.11152765933326</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>94.794806872237288</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>142.5100960462506</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>80.353228374244082</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>108.08541296283327</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>83.563581232816119</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>140.89963697910557</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>160.1162219257493</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>133.11241993554307</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>196.52519448697234</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>149.37290737998376</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>178.69734668584206</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>125.65779815504314</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108.28649309976767</v>
+        <v>140.01849556838636</v>
       </c>
       <c r="C2">
-        <v>128.49268004983412</v>
+        <v>182.55403063177212</v>
       </c>
       <c r="D2">
-        <v>86.198927641320225</v>
+        <v>136.13812285768728</v>
       </c>
       <c r="E2">
-        <v>167.51166522584299</v>
+        <v>180.54888624821382</v>
       </c>
       <c r="F2">
         <v>105.02195891480204</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>124.24543295112582</v>
+        <v>130.37329613799668</v>
       </c>
       <c r="C3">
-        <v>106.06981286636974</v>
+        <v>182.16845230034184</v>
       </c>
       <c r="D3">
-        <v>87.497479136214181</v>
+        <v>132.86164789905024</v>
       </c>
       <c r="E3">
-        <v>158.08801950496579</v>
+        <v>177.53767444996441</v>
       </c>
       <c r="F3">
         <v>129.01801651729818</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108.28649309976767</v>
+        <v>170.16317131227225</v>
       </c>
       <c r="C2">
-        <v>128.49268004983412</v>
+        <v>140.01849556838636</v>
       </c>
       <c r="D2">
-        <v>86.198927641320225</v>
+        <v>171.0798785168999</v>
       </c>
       <c r="E2">
-        <v>167.51166522584299</v>
+        <v>136.13812285768728</v>
       </c>
       <c r="F2">
         <v>105.02195891480204</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>124.24543295112582</v>
+        <v>153.98849238367626</v>
       </c>
       <c r="C3">
-        <v>106.06981286636974</v>
+        <v>130.37329613799668</v>
       </c>
       <c r="D3">
-        <v>87.497479136214181</v>
+        <v>160.1162219257493</v>
       </c>
       <c r="E3">
-        <v>158.08801950496579</v>
+        <v>132.86164789905024</v>
       </c>
       <c r="F3">
         <v>129.01801651729818</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>108.2864931021323</v>
+      </c>
+      <c r="C2">
+        <v>128.49268006039253</v>
+      </c>
+      <c r="D2">
+        <v>86.19892764083707</v>
+      </c>
+      <c r="E2">
+        <v>167.51166522820589</v>
+      </c>
+      <c r="F2">
+        <v>105.02195891522757</v>
+      </c>
+      <c r="G2">
+        <v>145.89848527878351</v>
+      </c>
+      <c r="H2">
+        <v>98.227631978827816</v>
+      </c>
+      <c r="I2">
+        <v>131.72709602366078</v>
+      </c>
+      <c r="J2">
+        <v>87.597061593257081</v>
+      </c>
+      <c r="K2">
+        <v>96.564859470653744</v>
+      </c>
+      <c r="L2">
+        <v>78.482783383386248</v>
+      </c>
+      <c r="M2">
+        <v>130.106562985967</v>
+      </c>
+      <c r="N2">
         <v>170.16317131227225</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>140.01849556838636</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>172.61299387382377</v>
+      </c>
+      <c r="Q2">
+        <v>159.77013132981543</v>
+      </c>
+      <c r="R2">
+        <v>182.55403063177212</v>
+      </c>
+      <c r="S2">
+        <v>133.90005598578477</v>
+      </c>
+      <c r="T2">
+        <v>138.14121945916477</v>
+      </c>
+      <c r="U2">
+        <v>112.54402350929485</v>
+      </c>
+      <c r="V2">
+        <v>139.05239993030253</v>
+      </c>
+      <c r="W2">
+        <v>195.49798059546595</v>
+      </c>
+      <c r="X2">
+        <v>132.49100995389489</v>
+      </c>
+      <c r="Y2">
+        <v>142.03594250729091</v>
+      </c>
+      <c r="Z2">
+        <v>90.96818379010503</v>
+      </c>
+      <c r="AA2">
+        <v>122.5071477372461</v>
+      </c>
+      <c r="AB2">
+        <v>123.17024901131961</v>
+      </c>
+      <c r="AC2">
+        <v>93.861507235107695</v>
+      </c>
+      <c r="AD2">
+        <v>143.99091943827744</v>
+      </c>
+      <c r="AE2">
+        <v>109.30315284137114</v>
+      </c>
+      <c r="AF2">
+        <v>135.29930262333198</v>
+      </c>
+      <c r="AG2">
+        <v>98.34967216140771</v>
+      </c>
+      <c r="AH2">
+        <v>125.1947243364545</v>
+      </c>
+      <c r="AI2">
+        <v>108.33399641454363</v>
+      </c>
+      <c r="AJ2">
+        <v>100.48549775870666</v>
+      </c>
+      <c r="AK2">
+        <v>72.317128949378542</v>
+      </c>
+      <c r="AL2">
+        <v>121.63173093782061</v>
+      </c>
+      <c r="AM2">
         <v>171.0798785168999</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>136.13812285768728</v>
       </c>
-      <c r="F2">
-        <v>105.02195891480204</v>
-      </c>
-      <c r="G2">
-        <v>145.89848526949893</v>
-      </c>
-      <c r="H2">
-        <v>98.227632009750494</v>
-      </c>
-      <c r="I2">
-        <v>131.72709602353081</v>
-      </c>
-      <c r="J2">
-        <v>87.597061592750549</v>
-      </c>
-      <c r="K2">
-        <v>96.564859469843455</v>
-      </c>
-      <c r="L2">
-        <v>78.482783385562584</v>
-      </c>
-      <c r="M2">
-        <v>130.10656297848533</v>
-      </c>
-      <c r="N2">
-        <v>170.16317131354603</v>
-      </c>
-      <c r="O2">
-        <v>140.01849556810507</v>
-      </c>
-      <c r="P2">
-        <v>172.61299386808693</v>
-      </c>
-      <c r="Q2">
-        <v>159.77013132957009</v>
-      </c>
-      <c r="R2">
-        <v>182.5540306236432</v>
-      </c>
-      <c r="S2">
-        <v>133.9000559850341</v>
-      </c>
-      <c r="T2">
-        <v>138.14121945566785</v>
-      </c>
-      <c r="U2">
-        <v>112.54402350714375</v>
-      </c>
-      <c r="V2">
-        <v>139.05239992990673</v>
-      </c>
-      <c r="W2">
-        <v>195.4979805950064</v>
-      </c>
-      <c r="X2">
-        <v>132.49100994909762</v>
-      </c>
-      <c r="Y2">
-        <v>142.03594250244288</v>
-      </c>
-      <c r="Z2">
-        <v>90.968183789164584</v>
-      </c>
-      <c r="AA2">
-        <v>122.50714773551856</v>
-      </c>
-      <c r="AB2">
-        <v>123.17024901124279</v>
-      </c>
-      <c r="AC2">
-        <v>93.861507231582152</v>
-      </c>
-      <c r="AD2">
-        <v>143.99091943474326</v>
-      </c>
-      <c r="AE2">
-        <v>109.30315283935346</v>
-      </c>
-      <c r="AF2">
-        <v>135.29930261373178</v>
-      </c>
-      <c r="AG2">
-        <v>98.349672161280083</v>
-      </c>
-      <c r="AH2">
-        <v>125.19472432699845</v>
-      </c>
-      <c r="AI2">
-        <v>108.33399641017375</v>
-      </c>
-      <c r="AJ2">
-        <v>100.48549775261266</v>
-      </c>
-      <c r="AK2">
-        <v>72.317128949409422</v>
-      </c>
-      <c r="AL2">
-        <v>121.63173093757675</v>
-      </c>
-      <c r="AM2">
-        <v>171.07987852017783</v>
-      </c>
-      <c r="AN2">
-        <v>136.13812285549139</v>
-      </c>
       <c r="AO2">
-        <v>169.193633454728</v>
+        <v>169.19363346034308</v>
       </c>
       <c r="AP2">
-        <v>170.3870018045165</v>
+        <v>170.38700183809172</v>
       </c>
       <c r="AQ2">
-        <v>180.5488862480818</v>
+        <v>180.54888624821382</v>
       </c>
       <c r="AR2">
-        <v>131.53342715082442</v>
+        <v>131.53342716122901</v>
       </c>
       <c r="AS2">
-        <v>141.44613494291028</v>
+        <v>141.44613494319265</v>
       </c>
       <c r="AT2">
-        <v>113.79507890337534</v>
+        <v>113.79507890385413</v>
       </c>
       <c r="AU2">
-        <v>145.74008929673704</v>
+        <v>145.74008930106294</v>
       </c>
       <c r="AV2">
-        <v>180.51846188230468</v>
+        <v>180.51846188318436</v>
       </c>
       <c r="AW2">
-        <v>127.50840245855275</v>
+        <v>127.50840246983628</v>
       </c>
       <c r="AX2">
-        <v>152.39317921271811</v>
+        <v>152.39317921329422</v>
       </c>
       <c r="AY2">
-        <v>120.86637779512813</v>
+        <v>120.86637779570636</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>124.24543295770277</v>
+      </c>
+      <c r="C3">
+        <v>106.06981286682046</v>
+      </c>
+      <c r="D3">
+        <v>87.497479135656349</v>
+      </c>
+      <c r="E3">
+        <v>158.08801950570924</v>
+      </c>
+      <c r="F3">
+        <v>129.01801652473458</v>
+      </c>
+      <c r="G3">
+        <v>134.98899098088384</v>
+      </c>
+      <c r="H3">
+        <v>96.175898945968029</v>
+      </c>
+      <c r="I3">
+        <v>135.94952998748266</v>
+      </c>
+      <c r="J3">
+        <v>85.731059102345654</v>
+      </c>
+      <c r="K3">
+        <v>113.38260411063933</v>
+      </c>
+      <c r="L3">
+        <v>109.33478146491569</v>
+      </c>
+      <c r="M3">
+        <v>139.47443313828248</v>
+      </c>
+      <c r="N3">
         <v>153.98849238367626</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>130.37329613799668</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>149.51571965868769</v>
+      </c>
+      <c r="Q3">
+        <v>149.78224551704787</v>
+      </c>
+      <c r="R3">
+        <v>182.16845230034184</v>
+      </c>
+      <c r="S3">
+        <v>131.86782348829857</v>
+      </c>
+      <c r="T3">
+        <v>144.26980523218228</v>
+      </c>
+      <c r="U3">
+        <v>95.308519956977662</v>
+      </c>
+      <c r="V3">
+        <v>164.92164185411511</v>
+      </c>
+      <c r="W3">
+        <v>129.27691527989884</v>
+      </c>
+      <c r="X3">
+        <v>141.8176284123079</v>
+      </c>
+      <c r="Y3">
+        <v>138.52538202584202</v>
+      </c>
+      <c r="Z3">
+        <v>127.13823702187244</v>
+      </c>
+      <c r="AA3">
+        <v>122.75340737921594</v>
+      </c>
+      <c r="AB3">
+        <v>106.12084212475079</v>
+      </c>
+      <c r="AC3">
+        <v>86.421996177292613</v>
+      </c>
+      <c r="AD3">
+        <v>152.20281893275822</v>
+      </c>
+      <c r="AE3">
+        <v>136.64680258018467</v>
+      </c>
+      <c r="AF3">
+        <v>130.96265557999214</v>
+      </c>
+      <c r="AG3">
+        <v>94.490094568653859</v>
+      </c>
+      <c r="AH3">
+        <v>142.57758871764014</v>
+      </c>
+      <c r="AI3">
+        <v>80.227666179919837</v>
+      </c>
+      <c r="AJ3">
+        <v>108.08541296283327</v>
+      </c>
+      <c r="AK3">
+        <v>83.563581232816119</v>
+      </c>
+      <c r="AL3">
+        <v>140.01576680427706</v>
+      </c>
+      <c r="AM3">
         <v>160.1162219257493</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>132.86164789905024</v>
       </c>
-      <c r="F3">
-        <v>129.01801651729818</v>
-      </c>
-      <c r="G3">
-        <v>134.98899100731663</v>
-      </c>
-      <c r="H3">
-        <v>96.175898938360703</v>
-      </c>
-      <c r="I3">
-        <v>135.94952998488677</v>
-      </c>
-      <c r="J3">
-        <v>85.731059100119467</v>
-      </c>
-      <c r="K3">
-        <v>113.38260410887111</v>
-      </c>
-      <c r="L3">
-        <v>109.33478146764193</v>
-      </c>
-      <c r="M3">
-        <v>139.47435416116139</v>
-      </c>
-      <c r="N3">
-        <v>153.98849238800273</v>
-      </c>
-      <c r="O3">
-        <v>130.37329613427093</v>
-      </c>
-      <c r="P3">
-        <v>149.51571965152505</v>
-      </c>
-      <c r="Q3">
-        <v>149.78224551657334</v>
-      </c>
-      <c r="R3">
-        <v>182.16845229425249</v>
-      </c>
-      <c r="S3">
-        <v>131.86782348687598</v>
-      </c>
-      <c r="T3">
-        <v>144.26980523238512</v>
-      </c>
-      <c r="U3">
-        <v>95.308519957003341</v>
-      </c>
-      <c r="V3">
-        <v>164.92164184929914</v>
-      </c>
-      <c r="W3">
-        <v>129.27691528130435</v>
-      </c>
-      <c r="X3">
-        <v>141.81762840714859</v>
-      </c>
-      <c r="Y3">
-        <v>138.52538202188884</v>
-      </c>
-      <c r="Z3">
-        <v>127.13823701868745</v>
-      </c>
-      <c r="AA3">
-        <v>122.75340737051671</v>
-      </c>
-      <c r="AB3">
-        <v>106.12084212431994</v>
-      </c>
-      <c r="AC3">
-        <v>86.421996175745335</v>
-      </c>
-      <c r="AD3">
-        <v>152.20281893166873</v>
-      </c>
-      <c r="AE3">
-        <v>136.64680257253755</v>
-      </c>
-      <c r="AF3">
-        <v>130.96265557971623</v>
-      </c>
-      <c r="AG3">
-        <v>94.490094569790102</v>
-      </c>
-      <c r="AH3">
-        <v>142.57758871703228</v>
-      </c>
-      <c r="AI3">
-        <v>80.227666176780787</v>
-      </c>
-      <c r="AJ3">
-        <v>108.08541296145444</v>
-      </c>
-      <c r="AK3">
-        <v>83.563581237870807</v>
-      </c>
-      <c r="AL3">
-        <v>140.01576679070857</v>
-      </c>
-      <c r="AM3">
-        <v>160.11622192555291</v>
-      </c>
-      <c r="AN3">
-        <v>132.86164789763242</v>
-      </c>
       <c r="AO3">
-        <v>196.34320179931294</v>
+        <v>196.34320180185483</v>
       </c>
       <c r="AP3">
-        <v>149.37290738023577</v>
+        <v>149.37290737998376</v>
       </c>
       <c r="AQ3">
-        <v>177.53767444459808</v>
+        <v>177.53767444996441</v>
       </c>
       <c r="AR3">
-        <v>125.61831969227765</v>
+        <v>125.61831969344708</v>
       </c>
       <c r="AS3">
-        <v>140.50639566756485</v>
+        <v>140.50639566767967</v>
       </c>
       <c r="AT3">
-        <v>98.076430831967585</v>
+        <v>98.076430849378809</v>
       </c>
       <c r="AU3">
-        <v>164.53146676378896</v>
+        <v>164.53146676364781</v>
       </c>
       <c r="AV3">
-        <v>125.85742733405375</v>
+        <v>125.85742733187719</v>
       </c>
       <c r="AW3">
-        <v>133.08093500480499</v>
+        <v>133.08093500842776</v>
       </c>
       <c r="AX3">
-        <v>112.88004456805098</v>
+        <v>112.88004457100031</v>
       </c>
       <c r="AY3">
-        <v>131.67599575420806</v>
+        <v>131.67599575457044</v>
       </c>
     </row>
   </sheetData>
